--- a/results/first_res.xlsx
+++ b/results/first_res.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a6a6de25d98118a/RBC Capital Markets/Project/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a6a6de25d98118a/RBC Capital Markets/2008-quantitative-study/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_1509742ADA7C120E62355476585DCE3A8724EA24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2A15C3-57BD-0D45-AD68-F995B98B3A26}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_1509742ADA7C120E62355476585DCE3A8724EA24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B76DD863-0230-AA4A-9F93-B096FD9ABF78}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3817,7 +3817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT785"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3837,7 +3839,7 @@
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="22.83203125" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
     <col min="19" max="19" width="16.83203125" customWidth="1"/>
     <col min="20" max="20" width="11.5" customWidth="1"/>
@@ -3851,7 +3853,7 @@
     <col min="28" max="28" width="11" customWidth="1"/>
     <col min="29" max="29" width="18.83203125" customWidth="1"/>
     <col min="30" max="30" width="19" customWidth="1"/>
-    <col min="31" max="31" width="15" customWidth="1"/>
+    <col min="31" max="31" width="20.83203125" customWidth="1"/>
     <col min="32" max="32" width="18.83203125" customWidth="1"/>
     <col min="33" max="33" width="17.6640625" customWidth="1"/>
     <col min="34" max="34" width="12.33203125" customWidth="1"/>
@@ -3863,7 +3865,7 @@
     <col min="40" max="40" width="13" customWidth="1"/>
     <col min="43" max="43" width="15.83203125" customWidth="1"/>
     <col min="44" max="44" width="16" customWidth="1"/>
-    <col min="45" max="45" width="14.33203125" customWidth="1"/>
+    <col min="45" max="45" width="23" customWidth="1"/>
     <col min="46" max="46" width="18.1640625" customWidth="1"/>
     <col min="47" max="47" width="17" customWidth="1"/>
     <col min="48" max="48" width="11.6640625" customWidth="1"/>
